--- a/Code/Results/Cases/Case_0_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9794499903283367</v>
+        <v>1.021462406042487</v>
       </c>
       <c r="D2">
-        <v>0.9889754710600076</v>
+        <v>1.023215683231386</v>
       </c>
       <c r="E2">
-        <v>0.9968763050850327</v>
+        <v>1.031418242243197</v>
       </c>
       <c r="F2">
-        <v>1.003832589470753</v>
+        <v>1.040297432974917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045524372838399</v>
+        <v>1.026641878174398</v>
       </c>
       <c r="J2">
-        <v>1.002263216276011</v>
+        <v>1.02665373659384</v>
       </c>
       <c r="K2">
-        <v>1.000590562228659</v>
+        <v>1.026047775447727</v>
       </c>
       <c r="L2">
-        <v>1.008379330167362</v>
+        <v>1.034226417757515</v>
       </c>
       <c r="M2">
-        <v>1.015238787225396</v>
+        <v>1.043080180560434</v>
       </c>
       <c r="N2">
-        <v>1.004469458036253</v>
+        <v>1.012892165284549</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9843121269466417</v>
+        <v>1.022501836748051</v>
       </c>
       <c r="D3">
-        <v>0.9929441470717502</v>
+        <v>1.024116155451989</v>
       </c>
       <c r="E3">
-        <v>1.00097359852903</v>
+        <v>1.032343811225308</v>
       </c>
       <c r="F3">
-        <v>1.00840624819597</v>
+        <v>1.041316064351011</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045825241134148</v>
+        <v>1.026605400056407</v>
       </c>
       <c r="J3">
-        <v>1.00523979139188</v>
+        <v>1.027330328448052</v>
       </c>
       <c r="K3">
-        <v>1.003668112105154</v>
+        <v>1.026754823851664</v>
       </c>
       <c r="L3">
-        <v>1.011594037119295</v>
+        <v>1.03496023264837</v>
       </c>
       <c r="M3">
-        <v>1.018932687644299</v>
+        <v>1.043908658534675</v>
       </c>
       <c r="N3">
-        <v>1.005503055088346</v>
+        <v>1.013121974758991</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9873935080977576</v>
+        <v>1.023175018296895</v>
       </c>
       <c r="D4">
-        <v>0.995465510128017</v>
+        <v>1.02469966425201</v>
       </c>
       <c r="E4">
-        <v>1.003575494868044</v>
+        <v>1.032943398160665</v>
       </c>
       <c r="F4">
-        <v>1.011306729770411</v>
+        <v>1.041975409810347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045997742145429</v>
+        <v>1.026579429592245</v>
       </c>
       <c r="J4">
-        <v>1.007125280538117</v>
+        <v>1.027768182983415</v>
       </c>
       <c r="K4">
-        <v>1.005618972300745</v>
+        <v>1.027212546304672</v>
       </c>
       <c r="L4">
-        <v>1.013630957517906</v>
+        <v>1.035435117346732</v>
       </c>
       <c r="M4">
-        <v>1.021270581298552</v>
+        <v>1.04444435664072</v>
       </c>
       <c r="N4">
-        <v>1.006156982173093</v>
+        <v>1.013270541973481</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9886740241510499</v>
+        <v>1.023458167241409</v>
       </c>
       <c r="D5">
-        <v>0.9965147387361372</v>
+        <v>1.024945172308576</v>
       </c>
       <c r="E5">
-        <v>1.004657947200694</v>
+        <v>1.033195626775223</v>
       </c>
       <c r="F5">
-        <v>1.012512450805347</v>
+        <v>1.042252650739759</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046064982514889</v>
+        <v>1.026567943967577</v>
       </c>
       <c r="J5">
-        <v>1.007908563994941</v>
+        <v>1.027952269425061</v>
       </c>
       <c r="K5">
-        <v>1.006429749281353</v>
+        <v>1.027405023583889</v>
       </c>
       <c r="L5">
-        <v>1.014477280230787</v>
+        <v>1.035634771790017</v>
       </c>
       <c r="M5">
-        <v>1.022241297850627</v>
+        <v>1.044669471310194</v>
       </c>
       <c r="N5">
-        <v>1.006428442291721</v>
+        <v>1.013332967025818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9888881718485589</v>
+        <v>1.023505717596512</v>
       </c>
       <c r="D6">
-        <v>0.996690289908317</v>
+        <v>1.024986405950415</v>
       </c>
       <c r="E6">
-        <v>1.004839040023155</v>
+        <v>1.03323798655626</v>
       </c>
       <c r="F6">
-        <v>1.01271411020005</v>
+        <v>1.042299203730363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04607596375493</v>
+        <v>1.026565982163034</v>
       </c>
       <c r="J6">
-        <v>1.008039540257576</v>
+        <v>1.027983179057488</v>
       </c>
       <c r="K6">
-        <v>1.006565342604431</v>
+        <v>1.027437344322936</v>
       </c>
       <c r="L6">
-        <v>1.014618804940618</v>
+        <v>1.035668295382997</v>
       </c>
       <c r="M6">
-        <v>1.022403584810381</v>
+        <v>1.044707263575154</v>
       </c>
       <c r="N6">
-        <v>1.006473822410315</v>
+        <v>1.013343446545721</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9874106761732544</v>
+        <v>1.023178801183785</v>
       </c>
       <c r="D7">
-        <v>0.9954795716907047</v>
+        <v>1.024702943954154</v>
       </c>
       <c r="E7">
-        <v>1.003590002837795</v>
+        <v>1.032946767815407</v>
       </c>
       <c r="F7">
-        <v>1.011322893658591</v>
+        <v>1.041979114114108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045998661317528</v>
+        <v>1.026579278352556</v>
       </c>
       <c r="J7">
-        <v>1.007135783223966</v>
+        <v>1.027770642707538</v>
       </c>
       <c r="K7">
-        <v>1.005629842306495</v>
+        <v>1.0272151179969</v>
       </c>
       <c r="L7">
-        <v>1.013642304965717</v>
+        <v>1.035437785089471</v>
       </c>
       <c r="M7">
-        <v>1.021283599238396</v>
+        <v>1.044447365000231</v>
       </c>
       <c r="N7">
-        <v>1.006160622852546</v>
+        <v>1.013271376228595</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9811069522962891</v>
+        <v>1.021813562015933</v>
       </c>
       <c r="D8">
-        <v>0.9903266149166534</v>
+        <v>1.023519826947792</v>
       </c>
       <c r="E8">
-        <v>0.9982714802078124</v>
+        <v>1.031730900827825</v>
       </c>
       <c r="F8">
-        <v>1.005390787631886</v>
+        <v>1.040641637324521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045630664999891</v>
+        <v>1.026630039631395</v>
       </c>
       <c r="J8">
-        <v>1.003277766561695</v>
+        <v>1.026882382349666</v>
       </c>
       <c r="K8">
-        <v>1.00163923255853</v>
+        <v>1.02628668087139</v>
       </c>
       <c r="L8">
-        <v>1.009474916412261</v>
+        <v>1.034474401555966</v>
       </c>
       <c r="M8">
-        <v>1.016498229078873</v>
+        <v>1.043360247038205</v>
       </c>
       <c r="N8">
-        <v>1.004821916767796</v>
+        <v>1.012969858212276</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9694742348775353</v>
+        <v>1.019412447848972</v>
       </c>
       <c r="D9">
-        <v>0.9808696275762719</v>
+        <v>1.021441518853236</v>
       </c>
       <c r="E9">
-        <v>0.9885015767806468</v>
+        <v>1.0295936537299</v>
       </c>
       <c r="F9">
-        <v>0.9944630945312883</v>
+        <v>1.038286593943733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044810779929571</v>
+        <v>1.026701407511732</v>
       </c>
       <c r="J9">
-        <v>0.9961529800727613</v>
+        <v>1.025317597656259</v>
       </c>
       <c r="K9">
-        <v>0.9942808994118076</v>
+        <v>1.02465233131339</v>
       </c>
       <c r="L9">
-        <v>1.001784003999304</v>
+        <v>1.032777272441151</v>
       </c>
       <c r="M9">
-        <v>1.007646647507531</v>
+        <v>1.041441730556131</v>
       </c>
       <c r="N9">
-        <v>1.002343672631488</v>
+        <v>1.012437525677426</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9613230211934615</v>
+        <v>1.017814821620351</v>
       </c>
       <c r="D10">
-        <v>0.9742822987433237</v>
+        <v>1.020060397508457</v>
       </c>
       <c r="E10">
-        <v>0.9816905696212773</v>
+        <v>1.028172419600557</v>
       </c>
       <c r="F10">
-        <v>0.9868247896452649</v>
+        <v>1.036717821552124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044146521562324</v>
+        <v>1.026736891602577</v>
       </c>
       <c r="J10">
-        <v>0.9911598908497442</v>
+        <v>1.024274741406401</v>
       </c>
       <c r="K10">
-        <v>0.9891319558965079</v>
+        <v>1.023563930099365</v>
       </c>
       <c r="L10">
-        <v>0.996398467256511</v>
+        <v>1.031646220315776</v>
       </c>
       <c r="M10">
-        <v>1.00143607217085</v>
+        <v>1.040160857393677</v>
       </c>
       <c r="N10">
-        <v>1.000603368448399</v>
+        <v>1.012081970157116</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9576889351758414</v>
+        <v>1.017123773633112</v>
       </c>
       <c r="D11">
-        <v>0.9713557357112501</v>
+        <v>1.019463414629235</v>
       </c>
       <c r="E11">
-        <v>0.9786633748906138</v>
+        <v>1.027557874246489</v>
       </c>
       <c r="F11">
-        <v>0.9834252492161131</v>
+        <v>1.036038838428846</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043830369514013</v>
+        <v>1.026749400744756</v>
       </c>
       <c r="J11">
-        <v>0.9889343507704321</v>
+        <v>1.023823259265625</v>
       </c>
       <c r="K11">
-        <v>0.9868388418366787</v>
+        <v>1.023092924476677</v>
       </c>
       <c r="L11">
-        <v>0.9939992070140704</v>
+        <v>1.031156558926972</v>
       </c>
       <c r="M11">
-        <v>0.9986666597181564</v>
+        <v>1.039605798009638</v>
       </c>
       <c r="N11">
-        <v>0.9998269532645158</v>
+        <v>1.011927856130542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9563223832028176</v>
+        <v>1.016867198142808</v>
       </c>
       <c r="D12">
-        <v>0.9702568720973944</v>
+        <v>1.019241827395401</v>
       </c>
       <c r="E12">
-        <v>0.9775265459938066</v>
+        <v>1.027329734577393</v>
       </c>
       <c r="F12">
-        <v>0.9821479032840578</v>
+        <v>1.035786680896908</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043708592941886</v>
+        <v>1.026753619156646</v>
       </c>
       <c r="J12">
-        <v>0.9880976101958282</v>
+        <v>1.023655571451583</v>
       </c>
       <c r="K12">
-        <v>0.9859769837111395</v>
+        <v>1.022918014550628</v>
       </c>
       <c r="L12">
-        <v>0.9930973499178249</v>
+        <v>1.030974691369258</v>
       </c>
       <c r="M12">
-        <v>0.9976253039451246</v>
+        <v>1.03939956031402</v>
       </c>
       <c r="N12">
-        <v>0.9995349453277873</v>
+        <v>1.011870588138519</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9566162851398894</v>
+        <v>1.016922229454073</v>
       </c>
       <c r="D13">
-        <v>0.9704931275231264</v>
+        <v>1.019289351411376</v>
       </c>
       <c r="E13">
-        <v>0.9777709719414974</v>
+        <v>1.027378665421398</v>
       </c>
       <c r="F13">
-        <v>0.982422572195396</v>
+        <v>1.035840767397431</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043734911978859</v>
+        <v>1.02675273364683</v>
       </c>
       <c r="J13">
-        <v>0.9882775588943167</v>
+        <v>1.023691540471501</v>
       </c>
       <c r="K13">
-        <v>0.9861623210750556</v>
+        <v>1.02295553138954</v>
       </c>
       <c r="L13">
-        <v>0.9932912933242126</v>
+        <v>1.031013701910822</v>
       </c>
       <c r="M13">
-        <v>0.9978492623028213</v>
+        <v>1.039443801874917</v>
       </c>
       <c r="N13">
-        <v>0.99959774853825</v>
+        <v>1.011882873361726</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9575763219979245</v>
+        <v>1.017102562768148</v>
       </c>
       <c r="D14">
-        <v>0.9712651481622326</v>
+        <v>1.019445094915672</v>
       </c>
       <c r="E14">
-        <v>0.9785696611899182</v>
+        <v>1.02753901349657</v>
       </c>
       <c r="F14">
-        <v>0.9833199659863897</v>
+        <v>1.036017994042766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043820392387807</v>
+        <v>1.026749758166174</v>
       </c>
       <c r="J14">
-        <v>0.9888653943203733</v>
+        <v>1.023809397875441</v>
       </c>
       <c r="K14">
-        <v>0.9867678095457204</v>
+        <v>1.023078465496626</v>
       </c>
       <c r="L14">
-        <v>0.9939248801496471</v>
+        <v>1.031141525398305</v>
       </c>
       <c r="M14">
-        <v>0.9985808432210956</v>
+        <v>1.039588751635085</v>
       </c>
       <c r="N14">
-        <v>0.9998028905826546</v>
+        <v>1.011923122811729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9581655900490971</v>
+        <v>1.017213686720817</v>
       </c>
       <c r="D15">
-        <v>0.9717392303679572</v>
+        <v>1.01954107469289</v>
       </c>
       <c r="E15">
-        <v>0.9790600965507388</v>
+        <v>1.027637826468736</v>
       </c>
       <c r="F15">
-        <v>0.9838709206562669</v>
+        <v>1.036127195493422</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043872482289189</v>
+        <v>1.026747868184427</v>
       </c>
       <c r="J15">
-        <v>0.9892262272625899</v>
+        <v>1.023882015417304</v>
       </c>
       <c r="K15">
-        <v>0.987139516652606</v>
+        <v>1.023154214910667</v>
       </c>
       <c r="L15">
-        <v>0.9943138233569573</v>
+        <v>1.031220283608354</v>
       </c>
       <c r="M15">
-        <v>0.9990298956446444</v>
+        <v>1.039678051528389</v>
       </c>
       <c r="N15">
-        <v>0.9999288010419711</v>
+        <v>1.011947918762919</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9615619185126314</v>
+        <v>1.017860699688916</v>
       </c>
       <c r="D16">
-        <v>0.9744749064893207</v>
+        <v>1.020100039521526</v>
       </c>
       <c r="E16">
-        <v>0.9818897748095344</v>
+        <v>1.028213223111813</v>
       </c>
       <c r="F16">
-        <v>0.987048401177775</v>
+        <v>1.036762889960659</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044166897710989</v>
+        <v>1.026736001330965</v>
       </c>
       <c r="J16">
-        <v>0.9913062099277108</v>
+        <v>1.024304706549833</v>
       </c>
       <c r="K16">
-        <v>0.98928275741359</v>
+        <v>1.023595195124544</v>
       </c>
       <c r="L16">
-        <v>0.9965562340791339</v>
+        <v>1.031678719521443</v>
       </c>
       <c r="M16">
-        <v>1.001618127120265</v>
+        <v>1.040197685831637</v>
       </c>
       <c r="N16">
-        <v>1.000654400083174</v>
+        <v>1.012092194931512</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9636636829793372</v>
+        <v>1.018266750615706</v>
       </c>
       <c r="D17">
-        <v>0.9761706064098582</v>
+        <v>1.020450945525342</v>
       </c>
       <c r="E17">
-        <v>0.9836434156571788</v>
+        <v>1.02857438465939</v>
       </c>
       <c r="F17">
-        <v>0.9890163674679648</v>
+        <v>1.037161726925901</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044343900535902</v>
+        <v>1.026727793721776</v>
       </c>
       <c r="J17">
-        <v>0.9925935616407165</v>
+        <v>1.024569871709771</v>
       </c>
       <c r="K17">
-        <v>0.9906097626501902</v>
+        <v>1.02387188554005</v>
       </c>
       <c r="L17">
-        <v>0.9979444447127812</v>
+        <v>1.031966309299509</v>
       </c>
       <c r="M17">
-        <v>1.00321975988487</v>
+        <v>1.040523523595913</v>
       </c>
       <c r="N17">
-        <v>1.001103308488132</v>
+        <v>1.012182653953354</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9648795886719028</v>
+        <v>1.018503664132294</v>
       </c>
       <c r="D18">
-        <v>0.9771525666776465</v>
+        <v>1.020655724490026</v>
       </c>
       <c r="E18">
-        <v>0.98465880873885</v>
+        <v>1.028785126844603</v>
       </c>
       <c r="F18">
-        <v>0.9901554169689853</v>
+        <v>1.037394391198914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044444395360175</v>
+        <v>1.026722730762053</v>
       </c>
       <c r="J18">
-        <v>0.9933383635893022</v>
+        <v>1.024724545890269</v>
       </c>
       <c r="K18">
-        <v>0.9913776856301099</v>
+        <v>1.024033301286598</v>
       </c>
       <c r="L18">
-        <v>0.9987477119070252</v>
+        <v>1.032134064345871</v>
       </c>
       <c r="M18">
-        <v>1.004146272354466</v>
+        <v>1.040713537413151</v>
       </c>
       <c r="N18">
-        <v>1.001362957096048</v>
+        <v>1.0122354020865</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9652925104654736</v>
+        <v>1.018584457538142</v>
       </c>
       <c r="D19">
-        <v>0.9774862025279722</v>
+        <v>1.020725566005796</v>
       </c>
       <c r="E19">
-        <v>0.9850037832646257</v>
+        <v>1.028856998495503</v>
       </c>
       <c r="F19">
-        <v>0.9905423277572806</v>
+        <v>1.037473728659679</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044478197088377</v>
+        <v>1.026720957646564</v>
       </c>
       <c r="J19">
-        <v>0.9935913047072708</v>
+        <v>1.02477728710107</v>
       </c>
       <c r="K19">
-        <v>0.9916385091620779</v>
+        <v>1.024088344431493</v>
       </c>
       <c r="L19">
-        <v>0.9990205270032004</v>
+        <v>1.032191265951424</v>
       </c>
       <c r="M19">
-        <v>1.004460902546719</v>
+        <v>1.040778320084351</v>
       </c>
       <c r="N19">
-        <v>1.00145112398209</v>
+        <v>1.012253385269836</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9634392266034548</v>
+        <v>1.0182231778616</v>
       </c>
       <c r="D20">
-        <v>0.9759894141766832</v>
+        <v>1.020413286135118</v>
       </c>
       <c r="E20">
-        <v>0.983456044603941</v>
+        <v>1.0285356268762</v>
       </c>
       <c r="F20">
-        <v>0.9888061422066872</v>
+        <v>1.037118932443042</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044325194444511</v>
+        <v>1.026728702819949</v>
       </c>
       <c r="J20">
-        <v>0.9924560744945743</v>
+        <v>1.024541421184071</v>
       </c>
       <c r="K20">
-        <v>0.9904680219353111</v>
+        <v>1.02384219648957</v>
       </c>
       <c r="L20">
-        <v>0.9977961741564318</v>
+        <v>1.031935452723159</v>
       </c>
       <c r="M20">
-        <v>1.003048719919441</v>
+        <v>1.040488568606926</v>
       </c>
       <c r="N20">
-        <v>1.001055372855442</v>
+        <v>1.012172950114575</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9572940840879181</v>
+        <v>1.01704945605049</v>
       </c>
       <c r="D21">
-        <v>0.9710381388190168</v>
+        <v>1.019399227945939</v>
       </c>
       <c r="E21">
-        <v>0.9783348149438894</v>
+        <v>1.02749179139383</v>
       </c>
       <c r="F21">
-        <v>0.9830561155105395</v>
+        <v>1.035965803905783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043795340936358</v>
+        <v>1.026750646179132</v>
       </c>
       <c r="J21">
-        <v>0.9886925740897885</v>
+        <v>1.02377469145128</v>
       </c>
       <c r="K21">
-        <v>0.9865897914536486</v>
+        <v>1.023042263287386</v>
       </c>
       <c r="L21">
-        <v>0.9937386037013798</v>
+        <v>1.031103884161577</v>
       </c>
       <c r="M21">
-        <v>0.9983657659543561</v>
+        <v>1.039546069299318</v>
       </c>
       <c r="N21">
-        <v>0.9997425826034658</v>
+        <v>1.011911270989565</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9533332784736998</v>
+        <v>1.016312129950951</v>
       </c>
       <c r="D22">
-        <v>0.9678563961997239</v>
+        <v>1.018762568395915</v>
       </c>
       <c r="E22">
-        <v>0.9750428136197662</v>
+        <v>1.026836242230948</v>
       </c>
       <c r="F22">
-        <v>0.9793559212200836</v>
+        <v>1.03524105888449</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043437037555686</v>
+        <v>1.026761966814583</v>
       </c>
       <c r="J22">
-        <v>0.9862677203428213</v>
+        <v>1.023292692088819</v>
       </c>
       <c r="K22">
-        <v>0.9840926985180548</v>
+        <v>1.022539559905953</v>
       </c>
       <c r="L22">
-        <v>0.9911254372434598</v>
+        <v>1.030581128157445</v>
       </c>
       <c r="M22">
-        <v>0.9953477425026257</v>
+        <v>1.038953113262983</v>
       </c>
       <c r="N22">
-        <v>0.9988961778888785</v>
+        <v>1.011746608958973</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9554425298878958</v>
+        <v>1.016702939819327</v>
       </c>
       <c r="D23">
-        <v>0.9695498413209861</v>
+        <v>1.019099986293642</v>
       </c>
       <c r="E23">
-        <v>0.9767950379738691</v>
+        <v>1.027183689708057</v>
       </c>
       <c r="F23">
-        <v>0.9813257856178966</v>
+        <v>1.035625233719083</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043629386946419</v>
+        <v>1.026756199900444</v>
       </c>
       <c r="J23">
-        <v>0.9875589247323412</v>
+        <v>1.023548201880391</v>
       </c>
       <c r="K23">
-        <v>0.9854222095798852</v>
+        <v>1.02280602893475</v>
       </c>
       <c r="L23">
-        <v>0.9925168008501329</v>
+        <v>1.030858242790373</v>
       </c>
       <c r="M23">
-        <v>0.9969548574047861</v>
+        <v>1.039267485115765</v>
       </c>
       <c r="N23">
-        <v>0.9993469272848025</v>
+        <v>1.011833912023897</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9635406796645817</v>
+        <v>1.018242866294487</v>
       </c>
       <c r="D24">
-        <v>0.9760713090802589</v>
+        <v>1.020430302479145</v>
       </c>
       <c r="E24">
-        <v>0.9835407325712282</v>
+        <v>1.028553139594398</v>
       </c>
       <c r="F24">
-        <v>0.9889011611906718</v>
+        <v>1.037138269336878</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044333655409702</v>
+        <v>1.026728292889275</v>
       </c>
       <c r="J24">
-        <v>0.9925182177940947</v>
+        <v>1.024554276727787</v>
       </c>
       <c r="K24">
-        <v>0.9905320872645084</v>
+        <v>1.023855611610381</v>
       </c>
       <c r="L24">
-        <v>0.9978631911385055</v>
+        <v>1.031949395454629</v>
       </c>
       <c r="M24">
-        <v>1.003126029245133</v>
+        <v>1.040504363391111</v>
       </c>
       <c r="N24">
-        <v>1.001077039665555</v>
+        <v>1.012177334908239</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9725480225195825</v>
+        <v>1.020032645285079</v>
       </c>
       <c r="D25">
-        <v>0.9833620379268883</v>
+        <v>1.021978036406256</v>
       </c>
       <c r="E25">
-        <v>0.9910774745756963</v>
+        <v>1.030145553445565</v>
       </c>
       <c r="F25">
-        <v>0.9973477729865048</v>
+        <v>1.038895212904069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045043289021863</v>
+        <v>1.02668509339661</v>
       </c>
       <c r="J25">
-        <v>0.9980359395561615</v>
+        <v>1.025722075805974</v>
       </c>
       <c r="K25">
-        <v>0.9962242472591357</v>
+        <v>1.025074647324018</v>
       </c>
       <c r="L25">
-        <v>1.003815898618637</v>
+        <v>1.033215959728629</v>
       </c>
       <c r="M25">
-        <v>1.009987401363543</v>
+        <v>1.041938046479875</v>
       </c>
       <c r="N25">
-        <v>1.002999277398932</v>
+        <v>1.012575265316018</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021462406042487</v>
+        <v>0.9794499903283366</v>
       </c>
       <c r="D2">
-        <v>1.023215683231386</v>
+        <v>0.9889754710600078</v>
       </c>
       <c r="E2">
-        <v>1.031418242243197</v>
+        <v>0.996876305085033</v>
       </c>
       <c r="F2">
-        <v>1.040297432974917</v>
+        <v>1.003832589470753</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026641878174398</v>
+        <v>1.045524372838399</v>
       </c>
       <c r="J2">
-        <v>1.02665373659384</v>
+        <v>1.002263216276011</v>
       </c>
       <c r="K2">
-        <v>1.026047775447727</v>
+        <v>1.000590562228659</v>
       </c>
       <c r="L2">
-        <v>1.034226417757515</v>
+        <v>1.008379330167362</v>
       </c>
       <c r="M2">
-        <v>1.043080180560434</v>
+        <v>1.015238787225396</v>
       </c>
       <c r="N2">
-        <v>1.012892165284549</v>
+        <v>1.004469458036253</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022501836748051</v>
+        <v>0.9843121269466415</v>
       </c>
       <c r="D3">
-        <v>1.024116155451989</v>
+        <v>0.9929441470717498</v>
       </c>
       <c r="E3">
-        <v>1.032343811225308</v>
+        <v>1.00097359852903</v>
       </c>
       <c r="F3">
-        <v>1.041316064351011</v>
+        <v>1.00840624819597</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026605400056407</v>
+        <v>1.045825241134148</v>
       </c>
       <c r="J3">
-        <v>1.027330328448052</v>
+        <v>1.005239791391879</v>
       </c>
       <c r="K3">
-        <v>1.026754823851664</v>
+        <v>1.003668112105154</v>
       </c>
       <c r="L3">
-        <v>1.03496023264837</v>
+        <v>1.011594037119294</v>
       </c>
       <c r="M3">
-        <v>1.043908658534675</v>
+        <v>1.018932687644299</v>
       </c>
       <c r="N3">
-        <v>1.013121974758991</v>
+        <v>1.005503055088346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023175018296895</v>
+        <v>0.9873935080977576</v>
       </c>
       <c r="D4">
-        <v>1.02469966425201</v>
+        <v>0.9954655101280169</v>
       </c>
       <c r="E4">
-        <v>1.032943398160665</v>
+        <v>1.003575494868044</v>
       </c>
       <c r="F4">
-        <v>1.041975409810347</v>
+        <v>1.011306729770411</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026579429592245</v>
+        <v>1.045997742145429</v>
       </c>
       <c r="J4">
-        <v>1.027768182983415</v>
+        <v>1.007125280538117</v>
       </c>
       <c r="K4">
-        <v>1.027212546304672</v>
+        <v>1.005618972300745</v>
       </c>
       <c r="L4">
-        <v>1.035435117346732</v>
+        <v>1.013630957517906</v>
       </c>
       <c r="M4">
-        <v>1.04444435664072</v>
+        <v>1.021270581298551</v>
       </c>
       <c r="N4">
-        <v>1.013270541973481</v>
+        <v>1.006156982173093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023458167241409</v>
+        <v>0.9886740241510498</v>
       </c>
       <c r="D5">
-        <v>1.024945172308576</v>
+        <v>0.9965147387361368</v>
       </c>
       <c r="E5">
-        <v>1.033195626775223</v>
+        <v>1.004657947200694</v>
       </c>
       <c r="F5">
-        <v>1.042252650739759</v>
+        <v>1.012512450805347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026567943967577</v>
+        <v>1.04606498251489</v>
       </c>
       <c r="J5">
-        <v>1.027952269425061</v>
+        <v>1.007908563994941</v>
       </c>
       <c r="K5">
-        <v>1.027405023583889</v>
+        <v>1.006429749281353</v>
       </c>
       <c r="L5">
-        <v>1.035634771790017</v>
+        <v>1.014477280230787</v>
       </c>
       <c r="M5">
-        <v>1.044669471310194</v>
+        <v>1.022241297850627</v>
       </c>
       <c r="N5">
-        <v>1.013332967025818</v>
+        <v>1.006428442291721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023505717596512</v>
+        <v>0.9888881718485584</v>
       </c>
       <c r="D6">
-        <v>1.024986405950415</v>
+        <v>0.9966902899083164</v>
       </c>
       <c r="E6">
-        <v>1.03323798655626</v>
+        <v>1.004839040023154</v>
       </c>
       <c r="F6">
-        <v>1.042299203730363</v>
+        <v>1.012714110200049</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026565982163034</v>
+        <v>1.04607596375493</v>
       </c>
       <c r="J6">
-        <v>1.027983179057488</v>
+        <v>1.008039540257576</v>
       </c>
       <c r="K6">
-        <v>1.027437344322936</v>
+        <v>1.00656534260443</v>
       </c>
       <c r="L6">
-        <v>1.035668295382997</v>
+        <v>1.014618804940618</v>
       </c>
       <c r="M6">
-        <v>1.044707263575154</v>
+        <v>1.022403584810381</v>
       </c>
       <c r="N6">
-        <v>1.013343446545721</v>
+        <v>1.006473822410315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023178801183785</v>
+        <v>0.987410676173254</v>
       </c>
       <c r="D7">
-        <v>1.024702943954154</v>
+        <v>0.9954795716907043</v>
       </c>
       <c r="E7">
-        <v>1.032946767815407</v>
+        <v>1.003590002837794</v>
       </c>
       <c r="F7">
-        <v>1.041979114114108</v>
+        <v>1.011322893658591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026579278352556</v>
+        <v>1.045998661317529</v>
       </c>
       <c r="J7">
-        <v>1.027770642707538</v>
+        <v>1.007135783223966</v>
       </c>
       <c r="K7">
-        <v>1.0272151179969</v>
+        <v>1.005629842306494</v>
       </c>
       <c r="L7">
-        <v>1.035437785089471</v>
+        <v>1.013642304965716</v>
       </c>
       <c r="M7">
-        <v>1.044447365000231</v>
+        <v>1.021283599238396</v>
       </c>
       <c r="N7">
-        <v>1.013271376228595</v>
+        <v>1.006160622852546</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021813562015933</v>
+        <v>0.9811069522962889</v>
       </c>
       <c r="D8">
-        <v>1.023519826947792</v>
+        <v>0.9903266149166527</v>
       </c>
       <c r="E8">
-        <v>1.031730900827825</v>
+        <v>0.9982714802078119</v>
       </c>
       <c r="F8">
-        <v>1.040641637324521</v>
+        <v>1.005390787631885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026630039631395</v>
+        <v>1.045630664999891</v>
       </c>
       <c r="J8">
-        <v>1.026882382349666</v>
+        <v>1.003277766561695</v>
       </c>
       <c r="K8">
-        <v>1.02628668087139</v>
+        <v>1.00163923255853</v>
       </c>
       <c r="L8">
-        <v>1.034474401555966</v>
+        <v>1.009474916412261</v>
       </c>
       <c r="M8">
-        <v>1.043360247038205</v>
+        <v>1.016498229078872</v>
       </c>
       <c r="N8">
-        <v>1.012969858212276</v>
+        <v>1.004821916767795</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019412447848972</v>
+        <v>0.9694742348775353</v>
       </c>
       <c r="D9">
-        <v>1.021441518853236</v>
+        <v>0.9808696275762719</v>
       </c>
       <c r="E9">
-        <v>1.0295936537299</v>
+        <v>0.9885015767806465</v>
       </c>
       <c r="F9">
-        <v>1.038286593943733</v>
+        <v>0.9944630945312883</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026701407511732</v>
+        <v>1.044810779929571</v>
       </c>
       <c r="J9">
-        <v>1.025317597656259</v>
+        <v>0.9961529800727612</v>
       </c>
       <c r="K9">
-        <v>1.02465233131339</v>
+        <v>0.9942808994118075</v>
       </c>
       <c r="L9">
-        <v>1.032777272441151</v>
+        <v>1.001784003999304</v>
       </c>
       <c r="M9">
-        <v>1.041441730556131</v>
+        <v>1.007646647507531</v>
       </c>
       <c r="N9">
-        <v>1.012437525677426</v>
+        <v>1.002343672631488</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017814821620351</v>
+        <v>0.9613230211934627</v>
       </c>
       <c r="D10">
-        <v>1.020060397508457</v>
+        <v>0.9742822987433249</v>
       </c>
       <c r="E10">
-        <v>1.028172419600557</v>
+        <v>0.9816905696212783</v>
       </c>
       <c r="F10">
-        <v>1.036717821552124</v>
+        <v>0.986824789645266</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026736891602577</v>
+        <v>1.044146521562324</v>
       </c>
       <c r="J10">
-        <v>1.024274741406401</v>
+        <v>0.9911598908497454</v>
       </c>
       <c r="K10">
-        <v>1.023563930099365</v>
+        <v>0.9891319558965093</v>
       </c>
       <c r="L10">
-        <v>1.031646220315776</v>
+        <v>0.9963984672565122</v>
       </c>
       <c r="M10">
-        <v>1.040160857393677</v>
+        <v>1.001436072170851</v>
       </c>
       <c r="N10">
-        <v>1.012081970157116</v>
+        <v>1.000603368448399</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017123773633112</v>
+        <v>0.9576889351758407</v>
       </c>
       <c r="D11">
-        <v>1.019463414629235</v>
+        <v>0.9713557357112496</v>
       </c>
       <c r="E11">
-        <v>1.027557874246489</v>
+        <v>0.9786633748906132</v>
       </c>
       <c r="F11">
-        <v>1.036038838428846</v>
+        <v>0.9834252492161122</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026749400744756</v>
+        <v>1.043830369514014</v>
       </c>
       <c r="J11">
-        <v>1.023823259265625</v>
+        <v>0.9889343507704316</v>
       </c>
       <c r="K11">
-        <v>1.023092924476677</v>
+        <v>0.986838841836678</v>
       </c>
       <c r="L11">
-        <v>1.031156558926972</v>
+        <v>0.9939992070140697</v>
       </c>
       <c r="M11">
-        <v>1.039605798009638</v>
+        <v>0.9986666597181556</v>
       </c>
       <c r="N11">
-        <v>1.011927856130542</v>
+        <v>0.9998269532645156</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016867198142808</v>
+        <v>0.9563223832028179</v>
       </c>
       <c r="D12">
-        <v>1.019241827395401</v>
+        <v>0.9702568720973946</v>
       </c>
       <c r="E12">
-        <v>1.027329734577393</v>
+        <v>0.9775265459938068</v>
       </c>
       <c r="F12">
-        <v>1.035786680896908</v>
+        <v>0.9821479032840578</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026753619156646</v>
+        <v>1.043708592941886</v>
       </c>
       <c r="J12">
-        <v>1.023655571451583</v>
+        <v>0.9880976101958286</v>
       </c>
       <c r="K12">
-        <v>1.022918014550628</v>
+        <v>0.9859769837111398</v>
       </c>
       <c r="L12">
-        <v>1.030974691369258</v>
+        <v>0.9930973499178249</v>
       </c>
       <c r="M12">
-        <v>1.03939956031402</v>
+        <v>0.9976253039451247</v>
       </c>
       <c r="N12">
-        <v>1.011870588138519</v>
+        <v>0.9995349453277874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016922229454073</v>
+        <v>0.9566162851398898</v>
       </c>
       <c r="D13">
-        <v>1.019289351411376</v>
+        <v>0.9704931275231269</v>
       </c>
       <c r="E13">
-        <v>1.027378665421398</v>
+        <v>0.9777709719414982</v>
       </c>
       <c r="F13">
-        <v>1.035840767397431</v>
+        <v>0.9824225721953966</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02675273364683</v>
+        <v>1.043734911978859</v>
       </c>
       <c r="J13">
-        <v>1.023691540471501</v>
+        <v>0.9882775588943171</v>
       </c>
       <c r="K13">
-        <v>1.02295553138954</v>
+        <v>0.986162321075056</v>
       </c>
       <c r="L13">
-        <v>1.031013701910822</v>
+        <v>0.9932912933242132</v>
       </c>
       <c r="M13">
-        <v>1.039443801874917</v>
+        <v>0.9978492623028219</v>
       </c>
       <c r="N13">
-        <v>1.011882873361726</v>
+        <v>0.9995977485382502</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017102562768148</v>
+        <v>0.9575763219979248</v>
       </c>
       <c r="D14">
-        <v>1.019445094915672</v>
+        <v>0.971265148162233</v>
       </c>
       <c r="E14">
-        <v>1.02753901349657</v>
+        <v>0.9785696611899183</v>
       </c>
       <c r="F14">
-        <v>1.036017994042766</v>
+        <v>0.9833199659863897</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026749758166174</v>
+        <v>1.043820392387807</v>
       </c>
       <c r="J14">
-        <v>1.023809397875441</v>
+        <v>0.9888653943203737</v>
       </c>
       <c r="K14">
-        <v>1.023078465496626</v>
+        <v>0.9867678095457209</v>
       </c>
       <c r="L14">
-        <v>1.031141525398305</v>
+        <v>0.9939248801496472</v>
       </c>
       <c r="M14">
-        <v>1.039588751635085</v>
+        <v>0.9985808432210959</v>
       </c>
       <c r="N14">
-        <v>1.011923122811729</v>
+        <v>0.9998028905826547</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017213686720817</v>
+        <v>0.9581655900490967</v>
       </c>
       <c r="D15">
-        <v>1.01954107469289</v>
+        <v>0.9717392303679571</v>
       </c>
       <c r="E15">
-        <v>1.027637826468736</v>
+        <v>0.9790600965507382</v>
       </c>
       <c r="F15">
-        <v>1.036127195493422</v>
+        <v>0.9838709206562662</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026747868184427</v>
+        <v>1.043872482289189</v>
       </c>
       <c r="J15">
-        <v>1.023882015417304</v>
+        <v>0.9892262272625897</v>
       </c>
       <c r="K15">
-        <v>1.023154214910667</v>
+        <v>0.9871395166526058</v>
       </c>
       <c r="L15">
-        <v>1.031220283608354</v>
+        <v>0.9943138233569567</v>
       </c>
       <c r="M15">
-        <v>1.039678051528389</v>
+        <v>0.999029895644644</v>
       </c>
       <c r="N15">
-        <v>1.011947918762919</v>
+        <v>0.999928801041971</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017860699688916</v>
+        <v>0.9615619185126312</v>
       </c>
       <c r="D16">
-        <v>1.020100039521526</v>
+        <v>0.9744749064893203</v>
       </c>
       <c r="E16">
-        <v>1.028213223111813</v>
+        <v>0.981889774809534</v>
       </c>
       <c r="F16">
-        <v>1.036762889960659</v>
+        <v>0.987048401177775</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026736001330965</v>
+        <v>1.044166897710989</v>
       </c>
       <c r="J16">
-        <v>1.024304706549833</v>
+        <v>0.9913062099277106</v>
       </c>
       <c r="K16">
-        <v>1.023595195124544</v>
+        <v>0.9892827574135897</v>
       </c>
       <c r="L16">
-        <v>1.031678719521443</v>
+        <v>0.9965562340791334</v>
       </c>
       <c r="M16">
-        <v>1.040197685831637</v>
+        <v>1.001618127120265</v>
       </c>
       <c r="N16">
-        <v>1.012092194931512</v>
+        <v>1.000654400083174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018266750615706</v>
+        <v>0.9636636829793369</v>
       </c>
       <c r="D17">
-        <v>1.020450945525342</v>
+        <v>0.9761706064098578</v>
       </c>
       <c r="E17">
-        <v>1.02857438465939</v>
+        <v>0.9836434156571785</v>
       </c>
       <c r="F17">
-        <v>1.037161726925901</v>
+        <v>0.9890163674679646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026727793721776</v>
+        <v>1.044343900535902</v>
       </c>
       <c r="J17">
-        <v>1.024569871709771</v>
+        <v>0.9925935616407163</v>
       </c>
       <c r="K17">
-        <v>1.02387188554005</v>
+        <v>0.9906097626501899</v>
       </c>
       <c r="L17">
-        <v>1.031966309299509</v>
+        <v>0.9979444447127809</v>
       </c>
       <c r="M17">
-        <v>1.040523523595913</v>
+        <v>1.00321975988487</v>
       </c>
       <c r="N17">
-        <v>1.012182653953354</v>
+        <v>1.001103308488132</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018503664132294</v>
+        <v>0.9648795886719032</v>
       </c>
       <c r="D18">
-        <v>1.020655724490026</v>
+        <v>0.9771525666776467</v>
       </c>
       <c r="E18">
-        <v>1.028785126844603</v>
+        <v>0.9846588087388501</v>
       </c>
       <c r="F18">
-        <v>1.037394391198914</v>
+        <v>0.9901554169689856</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026722730762053</v>
+        <v>1.044444395360175</v>
       </c>
       <c r="J18">
-        <v>1.024724545890269</v>
+        <v>0.9933383635893024</v>
       </c>
       <c r="K18">
-        <v>1.024033301286598</v>
+        <v>0.9913776856301101</v>
       </c>
       <c r="L18">
-        <v>1.032134064345871</v>
+        <v>0.9987477119070253</v>
       </c>
       <c r="M18">
-        <v>1.040713537413151</v>
+        <v>1.004146272354466</v>
       </c>
       <c r="N18">
-        <v>1.0122354020865</v>
+        <v>1.001362957096048</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018584457538142</v>
+        <v>0.9652925104654729</v>
       </c>
       <c r="D19">
-        <v>1.020725566005796</v>
+        <v>0.9774862025279715</v>
       </c>
       <c r="E19">
-        <v>1.028856998495503</v>
+        <v>0.9850037832646249</v>
       </c>
       <c r="F19">
-        <v>1.037473728659679</v>
+        <v>0.9905423277572799</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026720957646564</v>
+        <v>1.044478197088376</v>
       </c>
       <c r="J19">
-        <v>1.02477728710107</v>
+        <v>0.99359130470727</v>
       </c>
       <c r="K19">
-        <v>1.024088344431493</v>
+        <v>0.9916385091620772</v>
       </c>
       <c r="L19">
-        <v>1.032191265951424</v>
+        <v>0.9990205270031997</v>
       </c>
       <c r="M19">
-        <v>1.040778320084351</v>
+        <v>1.004460902546719</v>
       </c>
       <c r="N19">
-        <v>1.012253385269836</v>
+        <v>1.00145112398209</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0182231778616</v>
+        <v>0.9634392266034547</v>
       </c>
       <c r="D20">
-        <v>1.020413286135118</v>
+        <v>0.9759894141766829</v>
       </c>
       <c r="E20">
-        <v>1.0285356268762</v>
+        <v>0.983456044603941</v>
       </c>
       <c r="F20">
-        <v>1.037118932443042</v>
+        <v>0.9888061422066873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026728702819949</v>
+        <v>1.044325194444511</v>
       </c>
       <c r="J20">
-        <v>1.024541421184071</v>
+        <v>0.9924560744945742</v>
       </c>
       <c r="K20">
-        <v>1.02384219648957</v>
+        <v>0.9904680219353109</v>
       </c>
       <c r="L20">
-        <v>1.031935452723159</v>
+        <v>0.9977961741564317</v>
       </c>
       <c r="M20">
-        <v>1.040488568606926</v>
+        <v>1.003048719919441</v>
       </c>
       <c r="N20">
-        <v>1.012172950114575</v>
+        <v>1.001055372855441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01704945605049</v>
+        <v>0.9572940840879175</v>
       </c>
       <c r="D21">
-        <v>1.019399227945939</v>
+        <v>0.9710381388190163</v>
       </c>
       <c r="E21">
-        <v>1.02749179139383</v>
+        <v>0.9783348149438883</v>
       </c>
       <c r="F21">
-        <v>1.035965803905783</v>
+        <v>0.9830561155105386</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026750646179132</v>
+        <v>1.043795340936358</v>
       </c>
       <c r="J21">
-        <v>1.02377469145128</v>
+        <v>0.9886925740897879</v>
       </c>
       <c r="K21">
-        <v>1.023042263287386</v>
+        <v>0.9865897914536483</v>
       </c>
       <c r="L21">
-        <v>1.031103884161577</v>
+        <v>0.9937386037013788</v>
       </c>
       <c r="M21">
-        <v>1.039546069299318</v>
+        <v>0.9983657659543553</v>
       </c>
       <c r="N21">
-        <v>1.011911270989565</v>
+        <v>0.9997425826034658</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016312129950951</v>
+        <v>0.9533332784736996</v>
       </c>
       <c r="D22">
-        <v>1.018762568395915</v>
+        <v>0.9678563961997239</v>
       </c>
       <c r="E22">
-        <v>1.026836242230948</v>
+        <v>0.9750428136197657</v>
       </c>
       <c r="F22">
-        <v>1.03524105888449</v>
+        <v>0.9793559212200834</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026761966814583</v>
+        <v>1.043437037555686</v>
       </c>
       <c r="J22">
-        <v>1.023292692088819</v>
+        <v>0.9862677203428212</v>
       </c>
       <c r="K22">
-        <v>1.022539559905953</v>
+        <v>0.9840926985180546</v>
       </c>
       <c r="L22">
-        <v>1.030581128157445</v>
+        <v>0.9911254372434595</v>
       </c>
       <c r="M22">
-        <v>1.038953113262983</v>
+        <v>0.9953477425026255</v>
       </c>
       <c r="N22">
-        <v>1.011746608958973</v>
+        <v>0.9988961778888784</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016702939819327</v>
+        <v>0.9554425298878961</v>
       </c>
       <c r="D23">
-        <v>1.019099986293642</v>
+        <v>0.9695498413209865</v>
       </c>
       <c r="E23">
-        <v>1.027183689708057</v>
+        <v>0.9767950379738689</v>
       </c>
       <c r="F23">
-        <v>1.035625233719083</v>
+        <v>0.9813257856178966</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026756199900444</v>
+        <v>1.043629386946419</v>
       </c>
       <c r="J23">
-        <v>1.023548201880391</v>
+        <v>0.9875589247323414</v>
       </c>
       <c r="K23">
-        <v>1.02280602893475</v>
+        <v>0.9854222095798857</v>
       </c>
       <c r="L23">
-        <v>1.030858242790373</v>
+        <v>0.9925168008501331</v>
       </c>
       <c r="M23">
-        <v>1.039267485115765</v>
+        <v>0.9969548574047861</v>
       </c>
       <c r="N23">
-        <v>1.011833912023897</v>
+        <v>0.9993469272848026</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018242866294487</v>
+        <v>0.9635406796645829</v>
       </c>
       <c r="D24">
-        <v>1.020430302479145</v>
+        <v>0.9760713090802603</v>
       </c>
       <c r="E24">
-        <v>1.028553139594398</v>
+        <v>0.9835407325712293</v>
       </c>
       <c r="F24">
-        <v>1.037138269336878</v>
+        <v>0.9889011611906725</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026728292889275</v>
+        <v>1.044333655409702</v>
       </c>
       <c r="J24">
-        <v>1.024554276727787</v>
+        <v>0.9925182177940955</v>
       </c>
       <c r="K24">
-        <v>1.023855611610381</v>
+        <v>0.9905320872645095</v>
       </c>
       <c r="L24">
-        <v>1.031949395454629</v>
+        <v>0.9978631911385063</v>
       </c>
       <c r="M24">
-        <v>1.040504363391111</v>
+        <v>1.003126029245134</v>
       </c>
       <c r="N24">
-        <v>1.012177334908239</v>
+        <v>1.001077039665556</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020032645285079</v>
+        <v>0.9725480225195826</v>
       </c>
       <c r="D25">
-        <v>1.021978036406256</v>
+        <v>0.9833620379268885</v>
       </c>
       <c r="E25">
-        <v>1.030145553445565</v>
+        <v>0.9910774745756962</v>
       </c>
       <c r="F25">
-        <v>1.038895212904069</v>
+        <v>0.9973477729865048</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02668509339661</v>
+        <v>1.045043289021863</v>
       </c>
       <c r="J25">
-        <v>1.025722075805974</v>
+        <v>0.9980359395561615</v>
       </c>
       <c r="K25">
-        <v>1.025074647324018</v>
+        <v>0.9962242472591358</v>
       </c>
       <c r="L25">
-        <v>1.033215959728629</v>
+        <v>1.003815898618636</v>
       </c>
       <c r="M25">
-        <v>1.041938046479875</v>
+        <v>1.009987401363543</v>
       </c>
       <c r="N25">
-        <v>1.012575265316018</v>
+        <v>1.002999277398932</v>
       </c>
     </row>
   </sheetData>
